--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edval\Documents\GitHub\Cartonagem\Documentos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B841FFFF-AEFF-48B9-98EC-C5D1027F7A20}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12090"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Projeto Cartona</t>
   </si>
@@ -39,35 +45,104 @@
     <t>Previsão de Conclusão</t>
   </si>
   <si>
-    <t>Cadastro Fornecedor</t>
-  </si>
-  <si>
-    <t>Cadastro Empresa</t>
-  </si>
-  <si>
-    <t>Cadastro Funcionarios</t>
-  </si>
-  <si>
-    <t>Cadastro Estoque</t>
-  </si>
-  <si>
-    <t>Cadastro Banco</t>
-  </si>
-  <si>
     <t>Atividade</t>
   </si>
   <si>
     <t>Criação Banco de Dados</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Funcionarios</t>
+  </si>
+  <si>
+    <t>Estoque</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>Fornecedor</t>
+  </si>
+  <si>
+    <t>Cadastros</t>
+  </si>
+  <si>
+    <t>Contato</t>
+  </si>
+  <si>
+    <t>Documento</t>
+  </si>
+  <si>
+    <t>Duplicata</t>
+  </si>
+  <si>
+    <t>Endereco</t>
+  </si>
+  <si>
+    <t>NotaFiscal</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>MateriaPrima</t>
+  </si>
+  <si>
+    <t>Orçamento</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>1*Posteriormente significa que pode ser alimentadada via código, mas depois terá que fazer a tela para inserção via sistema.</t>
+  </si>
+  <si>
+    <t>TipoDocumento 1*</t>
+  </si>
+  <si>
+    <t>TipoTelefone 1*</t>
+  </si>
+  <si>
+    <t>Unidades 1*</t>
+  </si>
+  <si>
+    <t>Porc_Concluida</t>
+  </si>
+  <si>
+    <t>TipoMateriaPrima1*</t>
+  </si>
+  <si>
+    <t>Visualizações/Impressos</t>
+  </si>
+  <si>
+    <t>Ficha de Produção</t>
+  </si>
+  <si>
+    <t>Ficha de Amostra</t>
+  </si>
+  <si>
+    <t>Ficha Item Estoque</t>
+  </si>
+  <si>
+    <t>Ficha Cliente</t>
+  </si>
+  <si>
+    <t>Responsavel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,13 +150,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,9 +197,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -109,6 +215,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -116,7 +225,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -154,9 +263,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,9 +298,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,9 +350,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -399,128 +542,260 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="E22" s="1">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="1">
-        <v>43646</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="E29" s="1">
+        <v>43738</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="1">
-        <v>43738</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="E39" s="1">
         <v>43821</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H28" t="s">
-        <v>8</v>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -532,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edval\Documents\GitHub\Cartonagem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B841FFFF-AEFF-48B9-98EC-C5D1027F7A20}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040EB6EC-C60D-459A-B713-C2B82E15AD3B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Projeto Cartona</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Fornecedor</t>
   </si>
   <si>
-    <t>Cadastros</t>
-  </si>
-  <si>
     <t>Contato</t>
   </si>
   <si>
@@ -105,21 +102,9 @@
     <t>1*Posteriormente significa que pode ser alimentadada via código, mas depois terá que fazer a tela para inserção via sistema.</t>
   </si>
   <si>
-    <t>TipoDocumento 1*</t>
-  </si>
-  <si>
-    <t>TipoTelefone 1*</t>
-  </si>
-  <si>
-    <t>Unidades 1*</t>
-  </si>
-  <si>
     <t>Porc_Concluida</t>
   </si>
   <si>
-    <t>TipoMateriaPrima1*</t>
-  </si>
-  <si>
     <t>Visualizações/Impressos</t>
   </si>
   <si>
@@ -136,13 +121,31 @@
   </si>
   <si>
     <t>Responsavel</t>
+  </si>
+  <si>
+    <t>Edvaldo</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>TipoTelefone</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t>TipoMateriaPrima</t>
+  </si>
+  <si>
+    <t>TipoDocumento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,8 +161,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,13 +184,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6699FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -194,23 +240,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6699FF"/>
+      <color rgb="FF66CCFF"/>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF66FF99"/>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -543,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,243 +628,566 @@
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="7">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="1">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="13">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1">
-        <v>43646</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="1">
-        <v>43738</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="1">
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16">
+        <v>43738</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="20">
         <v>43821</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M46" t="s">
-        <v>26</v>
+    <row r="55" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N55" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <conditionalFormatting sqref="D4:E10 D12:E13 E11">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8735CE99-FE71-40E1-A049-E15A6FE6DE7C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:E24">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFF00"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{117142ED-A160-47FF-AD8F-12D988D05DDD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DD329DB1-49FE-4C82-822D-62338A66F361}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E35">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9588169A-2265-4C1D-A108-4A236B5C7D6C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E47">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{01AD79D6-84A4-4EB3-8A10-5A1FF16646E3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E13">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="1"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{321D505B-3282-4367-A456-14896CAC4880}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8735CE99-FE71-40E1-A049-E15A6FE6DE7C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D4:E10 D12:E13 E11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{117142ED-A160-47FF-AD8F-12D988D05DDD}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{DD329DB1-49FE-4C82-822D-62338A66F361}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D17:E24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9588169A-2265-4C1D-A108-4A236B5C7D6C}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E28:E35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{01AD79D6-84A4-4EB3-8A10-5A1FF16646E3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E39:E47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{321D505B-3282-4367-A456-14896CAC4880}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E4:E13</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edval\Documents\GitHub\Cartonagem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040EB6EC-C60D-459A-B713-C2B82E15AD3B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAE994A-AC50-4D33-BBDA-F5EB2381C331}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Projeto Cartona</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>TipoDocumento</t>
+  </si>
+  <si>
+    <t>TipoEndereco</t>
+  </si>
+  <si>
+    <t>Criação de Crud de Exemplo</t>
+  </si>
+  <si>
+    <t>Documentação</t>
   </si>
 </sst>
 </file>
@@ -246,9 +255,6 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -268,6 +274,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,38 +643,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -676,350 +685,376 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.45</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
       <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+    <row r="15" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="7">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="6">
         <v>43555</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E26" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="13">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="12">
         <v>43646</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="17" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F29" s="16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E37" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="16">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="15">
         <v>43738</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="4"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="4"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E49" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19" t="s">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="20">
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="19">
         <v>43821</v>
       </c>
     </row>
-    <row r="55" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N55" t="s">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N57" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1027,7 +1062,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:E10 D12:E13 E11">
+  <conditionalFormatting sqref="D4:E12 D14:E15 E13">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -1041,7 +1076,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:E24">
+  <conditionalFormatting sqref="D19:E26">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -1067,7 +1102,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E35">
+  <conditionalFormatting sqref="E30:E37">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -1081,7 +1116,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E47">
+  <conditionalFormatting sqref="E41:E49">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1095,7 +1130,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E13">
+  <conditionalFormatting sqref="E4:E15">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1127,7 +1162,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D4:E10 D12:E13 E11</xm:sqref>
+          <xm:sqref>D4:E12 D14:E15 E13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{117142ED-A160-47FF-AD8F-12D988D05DDD}">
@@ -1148,7 +1183,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D17:E24</xm:sqref>
+          <xm:sqref>D19:E26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9588169A-2265-4C1D-A108-4A236B5C7D6C}">
@@ -1159,7 +1194,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E28:E35</xm:sqref>
+          <xm:sqref>E30:E37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{01AD79D6-84A4-4EB3-8A10-5A1FF16646E3}">
@@ -1172,7 +1207,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E39:E47</xm:sqref>
+          <xm:sqref>E41:E49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{321D505B-3282-4367-A456-14896CAC4880}">
@@ -1183,7 +1218,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E4:E13</xm:sqref>
+          <xm:sqref>E4:E15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
